--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -473,7 +473,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,14 @@
   </si>
   <si>
     <t>跟进小一修改的原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看thinkingJava到300页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进云谷项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -572,6 +580,9 @@
       <c r="C9" t="s">
         <v>6</v>
       </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
@@ -580,6 +591,9 @@
       <c r="C10" t="s">
         <v>6</v>
       </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
@@ -588,12 +602,53 @@
       <c r="C11" t="s">
         <v>6</v>
       </c>
+      <c r="D11" s="2">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>43000</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
         <v>6</v>
       </c>
     </row>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,30 @@
   </si>
   <si>
     <t>跟进云谷项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月25号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷项目规范整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和小一确认需求文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进小一的UI页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认公交项目剩余的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看thinkingJava到360页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -627,6 +651,9 @@
       <c r="C14" t="s">
         <v>6</v>
       </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
@@ -635,6 +662,9 @@
       <c r="C15" t="s">
         <v>6</v>
       </c>
+      <c r="D15" s="2">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
@@ -643,13 +673,47 @@
       <c r="C16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,6 +139,26 @@
   </si>
   <si>
     <t>看thinkingJava到360页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月26号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点公交项目人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进浏览器插件项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月27号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -502,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,25 +715,120 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>18</v>
       </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B21" t="s">
         <v>19</v>
       </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>20</v>
       </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,26 @@
   </si>
   <si>
     <t>9月27号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月28号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月29号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认云谷项目免登陆功能需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进云谷项目免登陆功能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进魅族CDN项目部署上线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -820,21 +840,76 @@
       <c r="B30" t="s">
         <v>19</v>
       </c>
+      <c r="D30" s="2">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>21</v>
       </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>25</v>
       </c>
+      <c r="D32" s="2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,14 @@
   </si>
   <si>
     <t>跟进魅族CDN项目部署上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进魅族CDN项目部署后续问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月30号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -888,21 +896,51 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>28</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
-        <v>30</v>
+      <c r="D38" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
         <v>31</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,10 @@
   </si>
   <si>
     <t>9月30号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月9号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -550,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -932,14 +936,41 @@
       <c r="B42" t="s">
         <v>30</v>
       </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>32</v>
       </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
         <v>25</v>
       </c>
     </row>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +199,26 @@
   </si>
   <si>
     <t>10月10号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进浏览器插件项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助客户完成浏览器插件的部署安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进云谷项目跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与分析sla项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月11号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -991,22 +1011,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>36</v>
       </c>
       <c r="B50" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>25</v>
+        <v>37</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="37">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,14 @@
   </si>
   <si>
     <t>10月9号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进云谷项目跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月10号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -963,14 +971,41 @@
       <c r="B46" t="s">
         <v>30</v>
       </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>32</v>
       </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
         <v>25</v>
       </c>
     </row>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +219,22 @@
   </si>
   <si>
     <t>10月11号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月12号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进云谷项目跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估sla项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估eshop项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,15 +598,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -880,6 +896,9 @@
       <c r="B30" t="s">
         <v>19</v>
       </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
       <c r="D30" s="2">
         <v>0.6</v>
       </c>
@@ -888,6 +907,9 @@
       <c r="B31" t="s">
         <v>21</v>
       </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
       <c r="D31" s="2">
         <v>0</v>
       </c>
@@ -896,6 +918,9 @@
       <c r="B32" t="s">
         <v>25</v>
       </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
       <c r="D32" s="2">
         <v>0.3</v>
       </c>
@@ -907,6 +932,9 @@
       <c r="B34" t="s">
         <v>25</v>
       </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
       <c r="D34" s="2">
         <v>0.8</v>
       </c>
@@ -915,6 +943,9 @@
       <c r="B35" t="s">
         <v>29</v>
       </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
@@ -923,6 +954,9 @@
       <c r="B36" t="s">
         <v>19</v>
       </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
@@ -937,6 +971,9 @@
       <c r="B38" t="s">
         <v>25</v>
       </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
@@ -945,6 +982,9 @@
       <c r="B39" t="s">
         <v>30</v>
       </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
@@ -953,6 +993,9 @@
       <c r="B40" t="s">
         <v>31</v>
       </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
       <c r="D40" s="2">
         <v>1</v>
       </c>
@@ -964,6 +1007,9 @@
       <c r="B42" t="s">
         <v>30</v>
       </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
       <c r="D42" s="2">
         <v>1</v>
       </c>
@@ -972,6 +1018,9 @@
       <c r="B43" t="s">
         <v>32</v>
       </c>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
       <c r="D43" s="2">
         <v>1</v>
       </c>
@@ -980,6 +1029,9 @@
       <c r="B44" t="s">
         <v>25</v>
       </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
       <c r="D44" s="2">
         <v>1</v>
       </c>
@@ -991,6 +1043,9 @@
       <c r="B46" t="s">
         <v>30</v>
       </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
       <c r="D46" s="2">
         <v>1</v>
       </c>
@@ -999,6 +1054,9 @@
       <c r="B47" t="s">
         <v>32</v>
       </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
       <c r="D47" s="2">
         <v>1</v>
       </c>
@@ -1007,6 +1065,9 @@
       <c r="B48" t="s">
         <v>25</v>
       </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
       <c r="D48" s="2">
         <v>1</v>
       </c>
@@ -1018,6 +1079,9 @@
       <c r="B50" t="s">
         <v>35</v>
       </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
       <c r="D50" s="2">
         <v>1</v>
       </c>
@@ -1026,6 +1090,9 @@
       <c r="B51" t="s">
         <v>32</v>
       </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
       <c r="D51" s="2">
         <v>1</v>
       </c>
@@ -1034,6 +1101,9 @@
       <c r="B52" t="s">
         <v>37</v>
       </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
       <c r="D52" s="2">
         <v>1</v>
       </c>
@@ -1045,20 +1115,72 @@
       <c r="B54" t="s">
         <v>39</v>
       </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B55" t="s">
         <v>32</v>
       </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B56" t="s">
         <v>38</v>
       </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B57" t="s">
         <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -235,6 +235,14 @@
   </si>
   <si>
     <t>评估eshop项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估eshop项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月13号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1162,26 +1170,104 @@
       <c r="B59" t="s">
         <v>43</v>
       </c>
+      <c r="C59" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>32</v>
       </c>
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B61" t="s">
         <v>38</v>
       </c>
+      <c r="C61" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B62" t="s">
         <v>44</v>
       </c>
+      <c r="C62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>45</v>
       </c>
+      <c r="C63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="51">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t>10月13号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月16号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLA项目启动会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷项目培训</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="D65" sqref="D65:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1231,7 +1243,9 @@
       <c r="C65" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="2"/>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B66" t="s">
@@ -1240,7 +1254,9 @@
       <c r="C66" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B67" t="s">
@@ -1249,7 +1265,9 @@
       <c r="C67" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="2"/>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B68" t="s">
@@ -1258,7 +1276,9 @@
       <c r="C68" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B69" t="s">
@@ -1267,7 +1287,28 @@
       <c r="C69" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="2"/>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,14 @@
   </si>
   <si>
     <t>云谷项目培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷项目培训</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月17号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65:D69"/>
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1301,6 +1309,9 @@
       <c r="C71" t="s">
         <v>22</v>
       </c>
+      <c r="D71" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B72" t="s">
@@ -1309,6 +1320,30 @@
       <c r="C72" t="s">
         <v>22</v>
       </c>
+      <c r="D72" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B74" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,26 @@
   </si>
   <si>
     <t>10月17号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进魅族项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟进高亮插件需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷项目客户过来指导工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月18号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -626,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1334,7 +1354,9 @@
       <c r="C74" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="2"/>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
@@ -1343,7 +1365,36 @@
       <c r="C75" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" t="s">
+        <v>53</v>
+      </c>
+      <c r="C77" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,30 @@
   </si>
   <si>
     <t>10月18号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月19号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅族项目发包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器插件项目工时评估</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷项目跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLA项目跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序跟进</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1379,6 +1403,9 @@
       <c r="C77" t="s">
         <v>22</v>
       </c>
+      <c r="D77" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B78" t="s">
@@ -1387,6 +1414,9 @@
       <c r="C78" t="s">
         <v>22</v>
       </c>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B79" t="s">
@@ -1394,6 +1424,52 @@
       </c>
       <c r="C79" t="s">
         <v>56</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>58</v>
+      </c>
+      <c r="B81" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>63</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +307,22 @@
   </si>
   <si>
     <t>微信小程序跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月20号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLA项目跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷项目跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅族项目跟进</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -670,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1429,7 +1445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>58</v>
       </c>
@@ -1439,36 +1455,86 @@
       <c r="C81" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>60</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B83" t="s">
         <v>61</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D83" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B84" t="s">
         <v>62</v>
       </c>
       <c r="C84" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D84" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
         <v>63</v>
       </c>
       <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>63</v>
+      </c>
+      <c r="C90" t="s">
         <v>22</v>
       </c>
     </row>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="70">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,19 +310,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SLA项目跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云谷项目跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅族项目跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>10月20号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SLA项目跟进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云谷项目跟进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魅族项目跟进</t>
+    <t>10月23号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>口碑项目跟进</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1505,29 +1513,38 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B88" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C89" t="s">
         <v>22</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
@@ -1536,6 +1553,52 @@
       </c>
       <c r="C90" t="s">
         <v>22</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>68</v>
+      </c>
+      <c r="B92" t="s">
+        <v>66</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>62</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>63</v>
+      </c>
+      <c r="C95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>69</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="72">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +331,14 @@
   </si>
   <si>
     <t>口碑项目跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序去客户现场出差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月24号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1568,6 +1576,9 @@
       <c r="C92" t="s">
         <v>6</v>
       </c>
+      <c r="D92" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B93" t="s">
@@ -1576,6 +1587,9 @@
       <c r="C93" t="s">
         <v>6</v>
       </c>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
@@ -1584,6 +1598,9 @@
       <c r="C94" t="s">
         <v>22</v>
       </c>
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B95" t="s">
@@ -1592,6 +1609,9 @@
       <c r="C95" t="s">
         <v>22</v>
       </c>
+      <c r="D95" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B96" t="s">
@@ -1599,6 +1619,44 @@
       </c>
       <c r="C96" t="s">
         <v>6</v>
+      </c>
+      <c r="D96" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>71</v>
+      </c>
+      <c r="B98" t="s">
+        <v>66</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>62</v>
+      </c>
+      <c r="C100" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="75">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,18 @@
   </si>
   <si>
     <t>10月24号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月25号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子口岸项目验收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序需求分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1624,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>71</v>
       </c>
@@ -1634,28 +1646,83 @@
       <c r="C98" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D98" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B99" t="s">
         <v>61</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D99" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B100" t="s">
         <v>62</v>
       </c>
       <c r="C100" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B101" t="s">
         <v>70</v>
       </c>
       <c r="C101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>72</v>
+      </c>
+      <c r="B103" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>62</v>
+      </c>
+      <c r="C105" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
+        <v>74</v>
+      </c>
+      <c r="C106" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
+        <v>73</v>
+      </c>
+      <c r="C107" t="s">
         <v>22</v>
       </c>
     </row>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="76">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,6 +351,10 @@
   </si>
   <si>
     <t>微信小程序需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月26号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1693,6 +1697,9 @@
       <c r="C103" t="s">
         <v>6</v>
       </c>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B104" t="s">
@@ -1701,6 +1708,9 @@
       <c r="C104" t="s">
         <v>6</v>
       </c>
+      <c r="D104" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B105" t="s">
@@ -1709,6 +1719,9 @@
       <c r="C105" t="s">
         <v>22</v>
       </c>
+      <c r="D105" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B106" t="s">
@@ -1717,12 +1730,61 @@
       <c r="C106" t="s">
         <v>22</v>
       </c>
+      <c r="D106" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B107" t="s">
         <v>73</v>
       </c>
       <c r="C107" t="s">
+        <v>22</v>
+      </c>
+      <c r="D107" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>75</v>
+      </c>
+      <c r="B109" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B112" t="s">
+        <v>74</v>
+      </c>
+      <c r="C112" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
+        <v>73</v>
+      </c>
+      <c r="C113" t="s">
         <v>22</v>
       </c>
     </row>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="77">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,6 +355,10 @@
   </si>
   <si>
     <t>10月26号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月27号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1755,6 +1759,9 @@
       <c r="C109" t="s">
         <v>6</v>
       </c>
+      <c r="D109" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B110" t="s">
@@ -1763,6 +1770,9 @@
       <c r="C110" t="s">
         <v>6</v>
       </c>
+      <c r="D110" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B111" t="s">
@@ -1771,6 +1781,9 @@
       <c r="C111" t="s">
         <v>22</v>
       </c>
+      <c r="D111" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B112" t="s">
@@ -1779,12 +1792,61 @@
       <c r="C112" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D112" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
         <v>73</v>
       </c>
       <c r="C113" t="s">
+        <v>22</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>76</v>
+      </c>
+      <c r="B115" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
+        <v>61</v>
+      </c>
+      <c r="C116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
+        <v>62</v>
+      </c>
+      <c r="C117" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
+        <v>74</v>
+      </c>
+      <c r="C118" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B119" t="s">
+        <v>73</v>
+      </c>
+      <c r="C119" t="s">
         <v>22</v>
       </c>
     </row>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="78">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -359,6 +359,10 @@
   </si>
   <si>
     <t>10月27号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月30号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="K111" sqref="K111"/>
+      <selection activeCell="D115" sqref="D115:D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1817,6 +1821,9 @@
       <c r="C115" t="s">
         <v>6</v>
       </c>
+      <c r="D115" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B116" t="s">
@@ -1825,6 +1832,9 @@
       <c r="C116" t="s">
         <v>6</v>
       </c>
+      <c r="D116" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B117" t="s">
@@ -1833,6 +1843,9 @@
       <c r="C117" t="s">
         <v>22</v>
       </c>
+      <c r="D117" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B118" t="s">
@@ -1841,12 +1854,61 @@
       <c r="C118" t="s">
         <v>22</v>
       </c>
+      <c r="D118" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B119" t="s">
         <v>73</v>
       </c>
       <c r="C119" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>77</v>
+      </c>
+      <c r="B121" t="s">
+        <v>66</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
+        <v>61</v>
+      </c>
+      <c r="C122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>62</v>
+      </c>
+      <c r="C123" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B124" t="s">
+        <v>74</v>
+      </c>
+      <c r="C124" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B125" t="s">
+        <v>73</v>
+      </c>
+      <c r="C125" t="s">
         <v>22</v>
       </c>
     </row>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="79">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +363,10 @@
   </si>
   <si>
     <t>10月30号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月31号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115:D119"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1879,6 +1883,9 @@
       <c r="C121" t="s">
         <v>6</v>
       </c>
+      <c r="D121" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
@@ -1887,6 +1894,9 @@
       <c r="C122" t="s">
         <v>6</v>
       </c>
+      <c r="D122" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
@@ -1895,6 +1905,9 @@
       <c r="C123" t="s">
         <v>22</v>
       </c>
+      <c r="D123" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
@@ -1903,12 +1916,61 @@
       <c r="C124" t="s">
         <v>22</v>
       </c>
+      <c r="D124" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
         <v>73</v>
       </c>
       <c r="C125" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" t="s">
+        <v>66</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B128" t="s">
+        <v>61</v>
+      </c>
+      <c r="C128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B129" t="s">
+        <v>62</v>
+      </c>
+      <c r="C129" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B130" t="s">
+        <v>74</v>
+      </c>
+      <c r="C130" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B131" t="s">
+        <v>73</v>
+      </c>
+      <c r="C131" t="s">
         <v>22</v>
       </c>
     </row>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="80">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +367,10 @@
   </si>
   <si>
     <t>10月31号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月1号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+      <selection activeCell="D127" sqref="D127:D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1941,6 +1945,9 @@
       <c r="C127" t="s">
         <v>6</v>
       </c>
+      <c r="D127" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B128" t="s">
@@ -1949,28 +1956,83 @@
       <c r="C128" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D128" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B129" t="s">
         <v>62</v>
       </c>
       <c r="C129" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B130" t="s">
         <v>74</v>
       </c>
       <c r="C130" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B131" t="s">
         <v>73</v>
       </c>
       <c r="C131" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>79</v>
+      </c>
+      <c r="B133" t="s">
+        <v>66</v>
+      </c>
+      <c r="C133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B134" t="s">
+        <v>61</v>
+      </c>
+      <c r="C134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B135" t="s">
+        <v>62</v>
+      </c>
+      <c r="C135" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B136" t="s">
+        <v>74</v>
+      </c>
+      <c r="C136" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B137" t="s">
+        <v>73</v>
+      </c>
+      <c r="C137" t="s">
         <v>22</v>
       </c>
     </row>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="81">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,6 +371,10 @@
   </si>
   <si>
     <t>11月1号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月2号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127:D131"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133:D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2003,6 +2007,9 @@
       <c r="C133" t="s">
         <v>6</v>
       </c>
+      <c r="D133" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B134" t="s">
@@ -2011,6 +2018,9 @@
       <c r="C134" t="s">
         <v>6</v>
       </c>
+      <c r="D134" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B135" t="s">
@@ -2019,6 +2029,9 @@
       <c r="C135" t="s">
         <v>22</v>
       </c>
+      <c r="D135" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B136" t="s">
@@ -2027,12 +2040,61 @@
       <c r="C136" t="s">
         <v>22</v>
       </c>
+      <c r="D136" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B137" t="s">
         <v>73</v>
       </c>
       <c r="C137" t="s">
+        <v>22</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>80</v>
+      </c>
+      <c r="B139" t="s">
+        <v>66</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B140" t="s">
+        <v>61</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B141" t="s">
+        <v>62</v>
+      </c>
+      <c r="C141" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B142" t="s">
+        <v>74</v>
+      </c>
+      <c r="C142" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B143" t="s">
+        <v>73</v>
+      </c>
+      <c r="C143" t="s">
         <v>22</v>
       </c>
     </row>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="82">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,10 @@
   </si>
   <si>
     <t>11月2号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月3号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133:D137"/>
+      <selection activeCell="B148" sqref="B148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2065,6 +2069,9 @@
       <c r="C139" t="s">
         <v>6</v>
       </c>
+      <c r="D139" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
@@ -2073,6 +2080,9 @@
       <c r="C140" t="s">
         <v>6</v>
       </c>
+      <c r="D140" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B141" t="s">
@@ -2081,6 +2091,9 @@
       <c r="C141" t="s">
         <v>22</v>
       </c>
+      <c r="D141" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B142" t="s">
@@ -2089,12 +2102,61 @@
       <c r="C142" t="s">
         <v>22</v>
       </c>
+      <c r="D142" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
         <v>73</v>
       </c>
       <c r="C143" t="s">
+        <v>22</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>81</v>
+      </c>
+      <c r="B145" t="s">
+        <v>66</v>
+      </c>
+      <c r="C145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B146" t="s">
+        <v>61</v>
+      </c>
+      <c r="C146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B147" t="s">
+        <v>62</v>
+      </c>
+      <c r="C147" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B148" t="s">
+        <v>74</v>
+      </c>
+      <c r="C148" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B149" t="s">
+        <v>73</v>
+      </c>
+      <c r="C149" t="s">
         <v>22</v>
       </c>
     </row>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="83">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,10 @@
   </si>
   <si>
     <t>11月3号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信小程序项目跟进</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -742,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B148" sqref="B148"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2117,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>81</v>
       </c>
@@ -2127,36 +2131,94 @@
       <c r="C145" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D145" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B146" t="s">
         <v>61</v>
       </c>
       <c r="C146" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B147" t="s">
         <v>62</v>
       </c>
       <c r="C147" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B148" t="s">
         <v>74</v>
       </c>
       <c r="C148" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D148" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
         <v>73</v>
       </c>
       <c r="C149" t="s">
+        <v>22</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>81</v>
+      </c>
+      <c r="B151" t="s">
+        <v>66</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B152" t="s">
+        <v>61</v>
+      </c>
+      <c r="C152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B153" t="s">
+        <v>62</v>
+      </c>
+      <c r="C153" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B154" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B155" t="s">
+        <v>73</v>
+      </c>
+      <c r="C155" t="s">
         <v>22</v>
       </c>
     </row>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="84">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,6 +383,10 @@
   </si>
   <si>
     <t>微信小程序项目跟进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月6号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D154" sqref="D154"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2181,7 +2185,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B151" t="s">
         <v>66</v>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="85">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,6 +387,10 @@
   </si>
   <si>
     <t>11月6号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月7号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E155"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+      <selection activeCell="D151" sqref="D151:D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2193,6 +2197,9 @@
       <c r="C151" t="s">
         <v>6</v>
       </c>
+      <c r="D151" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B152" t="s">
@@ -2201,6 +2208,9 @@
       <c r="C152" t="s">
         <v>6</v>
       </c>
+      <c r="D152" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B153" t="s">
@@ -2209,6 +2219,9 @@
       <c r="C153" t="s">
         <v>22</v>
       </c>
+      <c r="D153" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B154" t="s">
@@ -2217,12 +2230,61 @@
       <c r="C154" t="s">
         <v>22</v>
       </c>
+      <c r="D154" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
         <v>73</v>
       </c>
       <c r="C155" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>84</v>
+      </c>
+      <c r="B157" t="s">
+        <v>66</v>
+      </c>
+      <c r="C157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B158" t="s">
+        <v>61</v>
+      </c>
+      <c r="C158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B159" t="s">
+        <v>62</v>
+      </c>
+      <c r="C159" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B160" t="s">
+        <v>82</v>
+      </c>
+      <c r="C160" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B161" t="s">
+        <v>73</v>
+      </c>
+      <c r="C161" t="s">
         <v>22</v>
       </c>
     </row>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="86">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +391,10 @@
   </si>
   <si>
     <t>11月7号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月8号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D151" sqref="D151:D155"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2255,6 +2259,9 @@
       <c r="C157" t="s">
         <v>6</v>
       </c>
+      <c r="D157" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B158" t="s">
@@ -2263,6 +2270,9 @@
       <c r="C158" t="s">
         <v>6</v>
       </c>
+      <c r="D158" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B159" t="s">
@@ -2271,6 +2281,9 @@
       <c r="C159" t="s">
         <v>22</v>
       </c>
+      <c r="D159" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B160" t="s">
@@ -2279,12 +2292,61 @@
       <c r="C160" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D160" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B161" t="s">
         <v>73</v>
       </c>
       <c r="C161" t="s">
+        <v>22</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>85</v>
+      </c>
+      <c r="B163" t="s">
+        <v>66</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B164" t="s">
+        <v>61</v>
+      </c>
+      <c r="C164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B165" t="s">
+        <v>62</v>
+      </c>
+      <c r="C165" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B166" t="s">
+        <v>82</v>
+      </c>
+      <c r="C166" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B167" t="s">
+        <v>73</v>
+      </c>
+      <c r="C167" t="s">
         <v>22</v>
       </c>
     </row>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="87">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,10 @@
   </si>
   <si>
     <t>11月8号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月9号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="G160" sqref="G160"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2317,6 +2321,9 @@
       <c r="C163" t="s">
         <v>6</v>
       </c>
+      <c r="D163" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B164" t="s">
@@ -2325,6 +2332,9 @@
       <c r="C164" t="s">
         <v>6</v>
       </c>
+      <c r="D164" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B165" t="s">
@@ -2333,6 +2343,9 @@
       <c r="C165" t="s">
         <v>22</v>
       </c>
+      <c r="D165" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B166" t="s">
@@ -2341,12 +2354,61 @@
       <c r="C166" t="s">
         <v>22</v>
       </c>
+      <c r="D166" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B167" t="s">
         <v>73</v>
       </c>
       <c r="C167" t="s">
+        <v>22</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>86</v>
+      </c>
+      <c r="B169" t="s">
+        <v>66</v>
+      </c>
+      <c r="C169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B170" t="s">
+        <v>61</v>
+      </c>
+      <c r="C170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B171" t="s">
+        <v>62</v>
+      </c>
+      <c r="C171" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B172" t="s">
+        <v>82</v>
+      </c>
+      <c r="C172" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B173" t="s">
+        <v>73</v>
+      </c>
+      <c r="C173" t="s">
         <v>22</v>
       </c>
     </row>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="88">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,6 +399,10 @@
   </si>
   <si>
     <t>11月9号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月10号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E173"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="G166" sqref="G166"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="D169" sqref="D169:D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2379,6 +2383,9 @@
       <c r="C169" t="s">
         <v>6</v>
       </c>
+      <c r="D169" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B170" t="s">
@@ -2387,6 +2394,9 @@
       <c r="C170" t="s">
         <v>6</v>
       </c>
+      <c r="D170" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B171" t="s">
@@ -2395,6 +2405,9 @@
       <c r="C171" t="s">
         <v>22</v>
       </c>
+      <c r="D171" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B172" t="s">
@@ -2403,12 +2416,61 @@
       <c r="C172" t="s">
         <v>22</v>
       </c>
+      <c r="D172" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B173" t="s">
         <v>73</v>
       </c>
       <c r="C173" t="s">
+        <v>22</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>87</v>
+      </c>
+      <c r="B175" t="s">
+        <v>66</v>
+      </c>
+      <c r="C175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B176" t="s">
+        <v>61</v>
+      </c>
+      <c r="C176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B177" t="s">
+        <v>62</v>
+      </c>
+      <c r="C177" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B178" t="s">
+        <v>82</v>
+      </c>
+      <c r="C178" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B179" t="s">
+        <v>73</v>
+      </c>
+      <c r="C179" t="s">
         <v>22</v>
       </c>
     </row>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="89">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -403,6 +403,10 @@
   </si>
   <si>
     <t>11月10号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月13号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,10 +770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E185"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="D169" sqref="D169:D173"/>
+      <selection activeCell="E180" sqref="E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2441,6 +2445,9 @@
       <c r="C175" t="s">
         <v>6</v>
       </c>
+      <c r="D175" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B176" t="s">
@@ -2449,28 +2456,83 @@
       <c r="C176" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D176" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B177" t="s">
         <v>62</v>
       </c>
       <c r="C177" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D177" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B178" t="s">
         <v>82</v>
       </c>
       <c r="C178" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D178" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B179" t="s">
         <v>73</v>
       </c>
       <c r="C179" t="s">
+        <v>22</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>88</v>
+      </c>
+      <c r="B181" t="s">
+        <v>66</v>
+      </c>
+      <c r="C181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B182" t="s">
+        <v>61</v>
+      </c>
+      <c r="C182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B183" t="s">
+        <v>62</v>
+      </c>
+      <c r="C183" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B184" t="s">
+        <v>82</v>
+      </c>
+      <c r="C184" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B185" t="s">
+        <v>73</v>
+      </c>
+      <c r="C185" t="s">
         <v>22</v>
       </c>
     </row>

--- a/交流管理/项目日报/包梅锦-每日要做的事.xlsx
+++ b/交流管理/项目日报/包梅锦-每日要做的事.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="90">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -407,6 +407,10 @@
   </si>
   <si>
     <t>11月13号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月14号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E185"/>
+  <dimension ref="A1:E191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="E180" sqref="E180"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2503,6 +2507,9 @@
       <c r="C181" t="s">
         <v>6</v>
       </c>
+      <c r="D181" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B182" t="s">
@@ -2511,6 +2518,9 @@
       <c r="C182" t="s">
         <v>6</v>
       </c>
+      <c r="D182" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B183" t="s">
@@ -2519,6 +2529,9 @@
       <c r="C183" t="s">
         <v>22</v>
       </c>
+      <c r="D183" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B184" t="s">
@@ -2527,12 +2540,61 @@
       <c r="C184" t="s">
         <v>22</v>
       </c>
+      <c r="D184" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
         <v>73</v>
       </c>
       <c r="C185" t="s">
+        <v>22</v>
+      </c>
+      <c r="D185" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>89</v>
+      </c>
+      <c r="B187" t="s">
+        <v>66</v>
+      </c>
+      <c r="C187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B188" t="s">
+        <v>61</v>
+      </c>
+      <c r="C188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B189" t="s">
+        <v>62</v>
+      </c>
+      <c r="C189" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B190" t="s">
+        <v>82</v>
+      </c>
+      <c r="C190" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B191" t="s">
+        <v>73</v>
+      </c>
+      <c r="C191" t="s">
         <v>22</v>
       </c>
     </row>
